--- a/chargers.xlsx
+++ b/chargers.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91bf495f62e35563/PPT/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{884266A3-D1ED-4277-B2B4-9F5BA150A35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C1F9D1A-E3F9-4AC3-AF6A-B0D75EC043ED}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{902D3D06-616C-456F-8B6A-48250D098066}"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="deviceNumber" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,51 +30,382 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>设备编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -91,9 +413,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -101,30 +665,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -206,26 +814,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -258,23 +849,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,616 +1010,606 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A2AA08-17E6-41C2-916F-13521C8DBD01}">
-  <dimension ref="A1:C117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="30.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="3">
         <v>58402408310201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="3">
         <v>58402408310202</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="3">
         <v>58402408310203</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" s="3">
         <v>58402408310204</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" s="3">
         <v>58402408310205</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="3">
         <v>58402408310206</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="3">
         <v>58402408310207</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" s="3">
         <v>58402408310208</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="3">
         <v>58402408310209</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="3">
         <v>58402408310210</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="3">
         <v>58402408310211</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="3">
         <v>58402408310212</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="3">
         <v>58402408310213</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1">
       <c r="A15" s="3">
         <v>58402408310214</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" s="3">
         <v>58402408310215</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" s="3">
         <v>58402408310216</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" s="3">
         <v>58402408310217</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" s="3">
         <v>58402408310218</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="3">
         <v>58402408310219</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" s="3">
         <v>58402408310220</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" s="3">
         <v>58402408310221</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" s="3">
         <v>58402408310222</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="3">
         <v>58402408310223</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" s="3">
         <v>58402408310224</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" s="3">
         <v>58402408310225</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" s="3">
         <v>58402408310226</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" s="3">
         <v>58402408310227</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" s="3">
         <v>58402408310228</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" s="3">
         <v>58402408310229</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" s="3">
         <v>58402408310230</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" s="3">
         <v>58402408310231</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" s="3">
         <v>58402408310232</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" s="3">
         <v>58402408310233</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" s="3">
         <v>58402408310234</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" s="3">
         <v>58402408310235</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" s="3">
         <v>58402408310236</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" s="3">
         <v>58402408310237</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" s="3">
         <v>58402408310238</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" s="3">
         <v>58402408310239</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" s="3">
         <v>58402408310240</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" s="3">
         <v>58402408310241</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1">
       <c r="A43" s="3">
         <v>58402408310242</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" s="3">
         <v>58402408310243</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" s="3">
         <v>58402408310244</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" s="3">
         <v>58402408310245</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" s="3">
         <v>58402408310246</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" s="3">
         <v>58402408310247</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1">
       <c r="A49" s="3">
         <v>58402408310248</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1">
       <c r="A50" s="3">
         <v>58402408310249</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1">
       <c r="A51" s="3">
         <v>58402408310250</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1">
       <c r="A52" s="3">
         <v>58402408310251</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1">
       <c r="A53" s="3">
         <v>58402408310252</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1">
       <c r="A54" s="3">
         <v>58402408310253</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1">
       <c r="A55" s="3">
         <v>58402408310254</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1">
       <c r="A56" s="3">
         <v>58402408310255</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1">
       <c r="A57" s="3">
         <v>58402408310256</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1">
       <c r="A58" s="3">
         <v>58402408310257</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" s="3">
         <v>58402408310258</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1">
       <c r="A60" s="3">
         <v>58402408310259</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1">
       <c r="A61" s="3">
         <v>58402408310260</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1">
       <c r="A62" s="3">
         <v>58402408310261</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1">
       <c r="A63" s="3">
         <v>58402408310262</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1">
       <c r="A64" s="3">
         <v>58402408310263</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1">
       <c r="A65" s="3">
         <v>58402408310264</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1">
       <c r="A66" s="3">
         <v>58402408310265</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1">
       <c r="A67" s="3">
         <v>58402408310266</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1">
       <c r="A68" s="3">
         <v>58402408310267</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1">
       <c r="A69" s="3">
         <v>58402408310268</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1">
       <c r="A70" s="3">
         <v>58402408310269</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1">
       <c r="A71" s="3">
         <v>58402408310270</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1">
       <c r="A72" s="3">
         <v>58402408310271</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1">
       <c r="A73" s="3">
         <v>58402408310272</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1">
       <c r="A74" s="3">
         <v>58402408310273</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1">
       <c r="A75" s="3">
         <v>58402408310274</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1">
       <c r="A76" s="3">
         <v>58402408310275</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1">
       <c r="A77" s="3">
         <v>58402408310276</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1">
       <c r="A78" s="3">
         <v>58402408310277</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1">
       <c r="A79" s="3">
         <v>58402408310278</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1">
       <c r="A80" s="3">
         <v>58402408310279</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1">
       <c r="A81" s="3">
         <v>58402408310280</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1">
       <c r="A82" s="3">
         <v>58402408310281</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1">
       <c r="A83" s="3">
         <v>58402408310282</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1">
       <c r="A84" s="3">
         <v>58402408310283</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1">
       <c r="A85" s="3">
         <v>58402408310284</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1">
       <c r="A86" s="3">
         <v>58402408310285</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="3">
         <v>58402408310286</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1">
       <c r="A88" s="3">
         <v>58402408310287</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1">
       <c r="A89" s="3">
         <v>58402408310288</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1">
       <c r="A90" s="3">
         <v>58402408310289</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1">
       <c r="A91" s="3">
         <v>58402408310290</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1">
       <c r="A92" s="3">
         <v>58402408310291</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1">
       <c r="A93" s="3">
         <v>58402408310292</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1">
       <c r="A94" s="3">
         <v>58402408310293</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1">
       <c r="A95" s="3">
         <v>58402408310294</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1">
       <c r="A96" s="3">
         <v>58402408310295</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1">
       <c r="A97" s="3">
         <v>58402408310296</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1">
       <c r="A98" s="3">
         <v>58402408310297</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1">
       <c r="A99" s="3">
         <v>58402408310298</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1">
       <c r="A100" s="3">
-        <v>58402408310298</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408310299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="3">
-        <v>58402408310298</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311201</v>
+      </c>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="1:1">
       <c r="A102" s="3">
-        <v>58402408311201</v>
-      </c>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
       <c r="A103" s="3">
-        <v>58402408311202</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
       <c r="A104" s="3">
-        <v>58402408311203</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
       <c r="A105" s="3">
-        <v>58402408311204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
       <c r="A106" s="3">
-        <v>58402408311205</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
       <c r="A107" s="3">
-        <v>58402408311206</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311207</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
       <c r="A108" s="3">
-        <v>58402408311207</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311208</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
       <c r="A109" s="3">
-        <v>58402408311208</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
       <c r="A110" s="3">
-        <v>58402408311209</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
       <c r="A111" s="3">
-        <v>58402408311210</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58402408311211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112" s="3">
-        <v>58402408311211</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58402408311212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
       <c r="A113" s="3">
-        <v>58402408311212</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58402408311213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
       <c r="A114" s="3">
-        <v>58402408311213</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58402408311214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
       <c r="A115" s="3">
-        <v>58402408311214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58402408311215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
       <c r="A116" s="3">
-        <v>58402408311215</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
         <v>58402408311216</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>